--- a/ExcelData/mapData.xlsx
+++ b/ExcelData/mapData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imase\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imase\Documents\Visual Studio 2022\Projects\MazeGame_GF\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FACFADE-52EA-45BB-A47F-057CFF6DF8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5221E480-485C-4B57-9CBD-072A1D2B5589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17D03B76-B883-4ED4-A995-F1BC8BFE35EC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>床</t>
     <rPh sb="0" eb="1">
@@ -48,6 +48,17 @@
     <rPh sb="0" eb="1">
       <t>カベ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宝箱</t>
+    <rPh sb="0" eb="2">
+      <t>タカラバコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -80,7 +91,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,6 +107,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -129,7 +152,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -155,24 +178,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -193,42 +215,42 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
+        <patternFill>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -545,7 +567,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -591,13 +613,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2" s="5">
         <v>0</v>
@@ -626,22 +648,22 @@
         <v>0</v>
       </c>
       <c r="C3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="5">
         <v>0</v>
@@ -673,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="5">
         <v>0</v>
@@ -687,19 +709,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="5">
         <v>0</v>
       </c>
       <c r="E5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="5">
         <v>0</v>
@@ -719,25 +741,25 @@
         <v>1</v>
       </c>
       <c r="B6" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="5">
         <v>0</v>
       </c>
       <c r="E6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="5">
         <v>0</v>
       </c>
       <c r="H6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="5">
         <v>0</v>
@@ -754,13 +776,13 @@
         <v>0</v>
       </c>
       <c r="C7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="5">
         <v>0</v>
@@ -769,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="5">
         <v>0</v>
@@ -786,22 +808,22 @@
         <v>0</v>
       </c>
       <c r="C8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="5">
         <v>0</v>
       </c>
       <c r="G8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="5">
         <v>0</v>
@@ -830,13 +852,13 @@
         <v>0</v>
       </c>
       <c r="G9" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" s="5">
         <v>1</v>
@@ -882,7 +904,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{1B100E52-9408-4E4D-8B33-72AD579A1BD6}">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{1B100E52-9408-4E4D-8B33-72AD579A1BD6}">
             <xm:f>タイルの色!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -892,12 +914,32 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{4F343EBC-F870-4F12-89D0-79244A568642}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{4F343EBC-F870-4F12-89D0-79244A568642}">
             <xm:f>タイルの色!$A$1</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
                   <bgColor theme="2"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{A19863F6-ADF4-480F-818F-5C21BC86E9AF}">
+            <xm:f>タイルの色!$A$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{405527B2-2889-477A-B3D9-F6CB2D703051}">
+            <xm:f>タイルの色!$A$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -912,16 +954,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672BEF7E-8AF7-4D8C-BB9F-9CE966CCCF01}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="33" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="9" style="3"/>
+    <col min="2" max="2" width="19.625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
@@ -940,8 +982,25 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>